--- a/biology/Botanique/Trigonia_laevis/Trigonia_laevis.xlsx
+++ b/biology/Botanique/Trigonia_laevis/Trigonia_laevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trigonia laevis est une espèce de plantes à fleurs de la famille des Trigoniaceae. C'est un liane ligneuse trouvée en Guyane. 
 </t>
@@ -511,9 +523,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trigonia laevis var. laevis a le statut d'espèce déterminante ZNIEFF en Guyane[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trigonia laevis var. laevis a le statut d'espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « 2. TRIGONIA (laevis) foliis ovatis, fructu brevi, aſpero,  (Tabula 150.)
 Frutex caules plures, ramoſos, nodoſos,ſarmentoſos, volubiles, ſuprà arbores expanſos, è radice protrudens. Folia oppoſita, ovato-ſubrotunda, glabra, integerrima, brevi-petiolata. Stipule binæ, exiguæ, deciduæ, ad baſm petiolorum. Flores terminales &amp; axillares, ſpicati, oppoſiti i ſinguli pedunculati, &amp; ad baſim ſquamula muniti. Corolla alba, petalo ſuperiori ad baſim concavo. Stamina: filamenta quinque, ſex, ſeptem aut decem, infernè in tubum coalita. Anthers ſubrotundæ, biloculares.
 Fructus: capſula brevis, ovata, trigona, unilocularis, trivalvis, valvulis extus aſperis. SEMiNA plurima,ſubrotunda, involuta lanugine alba.
